--- a/Charakterbogen.xlsx
+++ b/Charakterbogen.xlsx
@@ -5,15 +5,15 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Jurisic\Desktop\PenAndPaper_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janis\Documents\GitHub\PenAndPaper_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{630474FB-6F22-45F7-86E5-90F8A782E335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5145AD-7854-4295-A616-065DF946B5AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{396B72A2-12CE-422A-97A0-75A4949D3867}"/>
   </bookViews>
   <sheets>
-    <sheet name="Char.BluePrint" sheetId="8" r:id="rId1"/>
+    <sheet name="Charakterbogen" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -237,6 +237,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,52 +276,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921F0F25-3081-445F-BF8B-895D5A99EEC7}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -630,145 +606,140 @@
     <col min="2" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="I2" s="19" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="I3" s="19" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="I6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="I6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="I7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="I7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>1</v>
       </c>
@@ -784,21 +755,12 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4">
         <v>1</v>
       </c>
@@ -814,12 +776,20 @@
       <c r="G9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="4">
         <v>1</v>
       </c>
@@ -835,21 +805,20 @@
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="I10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4">
         <v>1</v>
       </c>
@@ -865,21 +834,20 @@
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="I11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="4">
         <v>1</v>
       </c>
@@ -895,21 +863,12 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -925,12 +884,20 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="I13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4">
         <v>1</v>
       </c>
@@ -946,21 +913,20 @@
       <c r="G14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4">
         <v>1</v>
       </c>
@@ -976,359 +942,352 @@
       <c r="G15" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="17" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    </row>
+    <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="77">
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C4:G4"/>
@@ -1337,63 +1296,27 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CCharakterbogen</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>